--- a/testcase/2-1-LF-CONVERG-EVI30-L3VPN/-RESULTS-2-1.xlsx
+++ b/testcase/2-1-LF-CONVERG-EVI30-L3VPN/-RESULTS-2-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tplisson/Dropbox/dvt-evpn-mpls/testcase/2-1-LF-CONVERG-EVI30-L3VPN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F82E5-0F09-E54B-828D-2FAA9ABB1FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828DB86B-6BB0-204E-A8C8-17B2EE37DF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{C8F6BCD9-09B2-8F4B-AFC8-10454014A4A1}"/>
   </bookViews>
